--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10342"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -37,144 +32,144 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>经验</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>星级</t>
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0" shapeId="0">
+    <comment ref="F31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
+    <comment ref="H31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -191,96 +186,96 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -297,84 +292,84 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>当前进度</t>
@@ -391,24 +386,24 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
@@ -420,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>Id</t>
   </si>
@@ -518,9 +513,6 @@
     <t>GMLevel</t>
   </si>
   <si>
-    <t>LoadPropertyFinish</t>
-  </si>
-  <si>
     <t>GameID</t>
   </si>
   <si>
@@ -998,94 +990,14 @@
     <t>CommPropertyValue</t>
   </si>
   <si>
-    <t>TaskMonsterList</t>
-  </si>
-  <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
-    <t>CurrentKillCount</t>
-  </si>
-  <si>
-    <t>RequireKillCount</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>任务杀怪表</t>
-  </si>
-  <si>
-    <t>TaskList</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>任务表</t>
-  </si>
-  <si>
-    <t>BuildingList</t>
-  </si>
-  <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>BuildingGUID</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
-    <t>PosZ</t>
-  </si>
-  <si>
-    <t>StateStartTime</t>
-  </si>
-  <si>
-    <t>StateEndTime</t>
-  </si>
-  <si>
-    <t>BuildingListProduce</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>lua</t>
-  </si>
-  <si>
-    <t>测试组件</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>U</t>
     </r>
     <r>
@@ -1094,15 +1006,23 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>pload</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskMonsterList</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>U</t>
     </r>
     <r>
@@ -1111,37 +1031,103 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>pload</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pload</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>CurrentKillCount</t>
+  </si>
+  <si>
+    <t>RequireKillCount</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>任务杀怪表</t>
+  </si>
+  <si>
+    <t>TaskList</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>任务表</t>
+  </si>
+  <si>
+    <t>BuildingList</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingGUID</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>StateStartTime</t>
+  </si>
+  <si>
+    <t>StateEndTime</t>
+  </si>
+  <si>
+    <t>BuildingListProduce</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1162,34 +1148,165 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,8 +1325,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1333,9 +1636,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,22 +1900,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,20 +1987,62 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1469,14 +2062,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1803,2534 +2388,2510 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG$1:AG$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="8.17699115044248" customWidth="1"/>
+    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
+    <col min="4" max="4" width="11.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="8.17699115044248" customWidth="1"/>
+    <col min="7" max="7" width="9.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="17.6371681415929" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.6371681415929" customWidth="1"/>
+    <col min="11" max="11" width="17.3628318584071" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+    <row r="1" s="29" customFormat="1" spans="1:36">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="30" t="s">
+    </row>
+    <row r="2" s="30" customFormat="1" spans="1:36">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="30" customFormat="1" spans="1:36">
+      <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="30" customFormat="1" spans="1:36">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="30" customFormat="1" spans="1:36">
+      <c r="A5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="30" customFormat="1" spans="1:36">
+      <c r="A6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="1:36">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="1:36">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="21" customFormat="1" ht="68.25" spans="1:36">
+      <c r="A9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="M9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="26" t="s">
+      <c r="Q9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="R9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="S9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="T9" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="U9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="W9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="X9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="Y9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Z9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="AA9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AB9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AC9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AE9" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AF9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="AF9" s="26" t="s">
+      <c r="AG9" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26" t="s">
+      <c r="AH9" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="AI9" s="26" t="s">
+      <c r="AI9" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="26" t="s">
+      <c r="AJ9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="AK9" s="26" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1048576 B7:AK8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1048576 B7:AF8 AG7:AJ8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.1769911504425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" s="18" customFormat="1" ht="27" spans="1:30">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" s="21" t="s">
+    </row>
+    <row r="2" s="19" customFormat="1" spans="1:30">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="1" spans="1:30">
+      <c r="A3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:30">
+      <c r="A4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" spans="1:30">
+      <c r="A5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:30">
+      <c r="A6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="1:30">
+      <c r="A7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="1:30">
+      <c r="A8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="21" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="M9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="P9" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="Q9" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="R9" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="S9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="T9" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="U9" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="W9" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="X9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="Y9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Z9" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="AA9" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AB9" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AC9" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AD9" s="26" t="s">
-        <v>136</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.8141592920354" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.17699115044248" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6371681415929" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6371681415929" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1769911504425" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="V9" s="3" t="s">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:22">
+      <c r="A10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" s="3" customFormat="1" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" s="3" customFormat="1" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" s="3" customFormat="1" spans="1:2">
       <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" s="3" customFormat="1" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" s="3" customFormat="1" spans="1:29">
       <c r="A31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA31" s="3" t="s">
+      <c r="AB31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AB31" s="3" t="s">
+      <c r="AC31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC31" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:29">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>164</v>
+        <v>46</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B30 C23:C29 C33 B18:B19 B7:B8 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 B7:B8 B18:B19 B29:B30 C23:C29 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:B25 B34:C1048576 A2:B3 A13:B14 C12:C18 C20:C22">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
+    <col min="2" max="2" width="15.3628318584071" customWidth="1"/>
+    <col min="3" max="3" width="10.3628318584071" customWidth="1"/>
+    <col min="4" max="4" width="14.1769911504425" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="11" max="11" width="12.6371681415929" customWidth="1"/>
+    <col min="12" max="12" width="16.4513274336283" customWidth="1"/>
+    <col min="13" max="13" width="8.36283185840708" customWidth="1"/>
+    <col min="14" max="14" width="17.6371681415929" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.453125" customWidth="1"/>
+    <col min="16" max="25" width="16.4513274336283" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1796875" customWidth="1"/>
+    <col min="27" max="31" width="20.1769911504425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="15" customFormat="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>165</v>
+      <c r="B1" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4354,9 +4915,9 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="16" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -4383,9 +4944,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="16" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4412,9 +4973,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="16" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -4441,9 +5002,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="16" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -4470,9 +5031,9 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="16" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -4499,9 +5060,9 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="16" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -4528,9 +5089,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>218</v>
+    <row r="8" s="16" customFormat="1" spans="1:23">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4557,154 +5118,154 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="16" customFormat="1" spans="1:23">
       <c r="A9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="W9" s="3" t="s">
+    </row>
+    <row r="10" s="16" customFormat="1" spans="1:23">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="1" spans="1:23">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4728,12 +5289,12 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" s="15" customFormat="1" spans="1:23">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>188</v>
+      <c r="B12" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4757,9 +5318,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" s="17" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -4786,9 +5347,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="17" customFormat="1" spans="1:23">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -4815,9 +5376,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="17" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -4844,9 +5405,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" s="17" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -4873,9 +5434,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" s="17" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -4902,9 +5463,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" s="17" customFormat="1" spans="1:23">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>0</v>
@@ -4931,9 +5492,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>219</v>
+    <row r="19" s="17" customFormat="1" spans="1:23">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -4960,46 +5521,46 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="17" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" s="17" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="17" customFormat="1" spans="1:23">
       <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>187</v>
+        <v>46</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5024,847 +5585,842 @@
       <c r="W22" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B18:B19 E1:G8 G11:G19 A4:B6 D22:G1048576 A15:B17 D12:F19 B7:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 B18:B19 G11:G19 E1:G8 A4:B6 D22:G1048576 A15:B17 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N22:N1048576 N11:N19 N1:N8"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.3628318584071" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="12" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.17699115044248" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="8" max="9" width="9.17699115044248" customWidth="1"/>
+    <col min="10" max="12" width="12.6371681415929" customWidth="1"/>
+    <col min="13" max="13" width="11.6371681415929" customWidth="1"/>
+    <col min="14" max="14" width="10.3628318584071" customWidth="1"/>
+    <col min="15" max="15" width="11.6371681415929" customWidth="1"/>
+    <col min="16" max="16" width="10.3628318584071" customWidth="1"/>
+    <col min="17" max="17" width="9.17699115044248" customWidth="1"/>
+    <col min="18" max="18" width="12.8141592920354" customWidth="1"/>
+    <col min="19" max="19" width="10.3628318584071" customWidth="1"/>
+    <col min="20" max="20" width="15.1769911504425" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" customWidth="1"/>
+    <col min="22" max="22" width="12.6371681415929" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6328125" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" customWidth="1"/>
+    <col min="24" max="25" width="11.6371681415929" customWidth="1"/>
+    <col min="26" max="26" width="15.1769911504425" customWidth="1"/>
+    <col min="27" max="27" width="12.6371681415929" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" customWidth="1"/>
-    <col min="31" max="32" width="15.1796875" customWidth="1"/>
+    <col min="30" max="30" width="11.6371681415929" customWidth="1"/>
+    <col min="31" max="32" width="15.1769911504425" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" customWidth="1"/>
+    <col min="34" max="34" width="15.1769911504425" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>220</v>
+    <row r="8" s="3" customFormat="1" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" spans="1:29">
       <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD$1:AK$1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G8 G11:G1048576 A4:B6 D1:F8 D11:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" customWidth="1"/>
+    <col min="2" max="2" width="17.1769911504425" customWidth="1"/>
+    <col min="3" max="3" width="20.3628318584071" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="11" width="22.6328125" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.6371681415929" customWidth="1"/>
+    <col min="10" max="11" width="22.6371681415929" customWidth="1"/>
+    <col min="12" max="12" width="10.4513274336283" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B7" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:2">
+      <c r="A8" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="12" s="6" customFormat="1" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:2">
+      <c r="A14" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="9">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B18" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>201</v>
       </c>
     </row>
+    <row r="21" s="7" customFormat="1" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.17699115044248" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6371681415929" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.8141592920354" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.8141592920354" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>220</v>
+    <row r="8" s="3" customFormat="1" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>218</v>
+    <row r="19" s="3" customFormat="1" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="3" customFormat="1" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 G11:H19 D22:H1048576 I1:I1048576 A4:B6 A15:B17 E1:H8 D12:F19 B18:B19">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 B18:B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
@@ -5872,57 +6428,62 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.17699115044248" customWidth="1"/>
+    <col min="2" max="2" width="12.6371681415929" customWidth="1"/>
+    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -5931,7 +6492,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -49,7 +49,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -61,7 +61,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>经验</t>
@@ -73,7 +73,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>星级</t>
@@ -85,7 +85,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -97,7 +97,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -109,7 +109,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -121,7 +121,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -133,7 +133,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -145,7 +145,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -157,7 +157,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -169,7 +169,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -191,7 +191,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -203,7 +203,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -215,7 +215,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -227,7 +227,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -239,7 +239,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -251,7 +251,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -263,7 +263,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -275,7 +275,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -297,7 +297,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -309,7 +309,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -321,7 +321,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -333,7 +333,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -345,7 +345,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>任务ID</t>
@@ -357,7 +357,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>任务状态，见NFDefine.proto中ETaskState</t>
@@ -369,7 +369,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>当前进度</t>
@@ -391,7 +391,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
@@ -403,7 +403,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
@@ -1114,20 +1114,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1149,51 +1142,85 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1201,7 +1228,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1209,100 +1273,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1327,7 +1313,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,67 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,103 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,6 +1632,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1676,41 +1703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,168 +1720,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1900,28 +1886,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,55 +1969,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2388,6 +2368,7 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2396,138 +2377,138 @@
   <sheetPr/>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG1" sqref="AG$1:AG$1048576"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8141592920354" customWidth="1"/>
-    <col min="2" max="2" width="8.17699115044248" customWidth="1"/>
-    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
-    <col min="4" max="4" width="11.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="8.17699115044248" customWidth="1"/>
-    <col min="7" max="7" width="9.36283185840708" customWidth="1"/>
-    <col min="8" max="8" width="17.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="23.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.175" customWidth="1"/>
+    <col min="3" max="3" width="10.45" customWidth="1"/>
+    <col min="4" max="4" width="11.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.175" customWidth="1"/>
+    <col min="7" max="7" width="9.36666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6371681415929" customWidth="1"/>
-    <col min="11" max="11" width="17.3628318584071" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" spans="1:36">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
+    <row r="1" s="27" customFormat="1" spans="1:36">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AH1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AI1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="30" customFormat="1" spans="1:36">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="28" customFormat="1" spans="1:36">
+      <c r="A2" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2636,8 +2617,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="30" customFormat="1" spans="1:36">
-      <c r="A3" s="33" t="s">
+    <row r="3" s="28" customFormat="1" spans="1:36">
+      <c r="A3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="3" t="b">
@@ -2746,8 +2727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="30" customFormat="1" spans="1:36">
-      <c r="A4" s="33" t="s">
+    <row r="4" s="28" customFormat="1" spans="1:36">
+      <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3" t="b">
@@ -2856,8 +2837,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="30" customFormat="1" spans="1:36">
-      <c r="A5" s="33" t="s">
+    <row r="5" s="28" customFormat="1" spans="1:36">
+      <c r="A5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="3" t="b">
@@ -2966,452 +2947,452 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="30" customFormat="1" spans="1:36">
-      <c r="A6" s="33" t="s">
+    <row r="6" s="28" customFormat="1" spans="1:36">
+      <c r="A6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="20" customFormat="1" spans="1:36">
-      <c r="A7" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:36">
+      <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="20" customFormat="1" spans="1:36">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:36">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="21" customFormat="1" ht="68.25" spans="1:36">
-      <c r="A9" s="27" t="s">
+      <c r="B8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:36">
+      <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="Y9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" s="28" t="s">
+      <c r="Z9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="28" t="s">
+      <c r="AA9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="28" t="s">
+      <c r="AB9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="28" t="s">
+      <c r="AC9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="28" t="s">
+      <c r="AD9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="28" t="s">
+      <c r="AE9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AF9" s="28" t="s">
+      <c r="AF9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="28" t="s">
+      <c r="AG9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="28" t="s">
+      <c r="AH9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="AI9" s="28" t="s">
+      <c r="AI9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="28" t="s">
+      <c r="AJ9" s="26" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1048576 B7:AF8 AG7:AJ8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F1:F5 F9:F1048576 B7:AF8 AG7:AJ8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3424,840 +3405,840 @@
   <sheetPr/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1769911504425" customWidth="1"/>
+    <col min="1" max="1" width="19.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="27" spans="1:30">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" spans="1:30">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="17" customFormat="1" spans="1:30">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="1" spans="1:30">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" s="17" customFormat="1" spans="1:30">
+      <c r="A3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" spans="1:30">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="1" spans="1:30">
+      <c r="A4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="19" customFormat="1" spans="1:30">
-      <c r="A5" s="24" t="s">
+      <c r="B4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="17" customFormat="1" spans="1:30">
+      <c r="A5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" spans="1:30">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="17" customFormat="1" spans="1:30">
+      <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="20" customFormat="1" spans="1:30">
-      <c r="A7" s="26" t="s">
+      <c r="B6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:30">
+      <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="20" customFormat="1" spans="1:30">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:30">
+      <c r="A8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="21" customFormat="1" ht="68.25" spans="1:30">
-      <c r="A9" s="27" t="s">
+      <c r="B8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="Y9" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="Z9" s="28" t="s">
+      <c r="Z9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AA9" s="28" t="s">
+      <c r="AA9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" s="28" t="s">
+      <c r="AB9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="AC9" s="28" t="s">
+      <c r="AC9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="AD9" s="28" t="s">
+      <c r="AD9" s="26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4280,20 +4261,20 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.8141592920354" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.17699115044248" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.175" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.8166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.175" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6371681415929" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6371681415929" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1769911504425" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6333333333333" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.175" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
@@ -4303,7 +4284,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4352,7 +4333,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
@@ -4432,7 +4413,7 @@
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:22">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4447,22 +4428,22 @@
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -4503,13 +4484,13 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4558,7 +4539,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
@@ -4578,7 +4559,7 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4589,13 +4570,13 @@
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4837,20 +4818,20 @@
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 B19 C33 B29:B30 C23:C29 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 B7:B8 B18:B19 B29:B30 C23:C29 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4866,31 +4847,31 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
-    <col min="2" max="2" width="15.3628318584071" customWidth="1"/>
-    <col min="3" max="3" width="10.3628318584071" customWidth="1"/>
-    <col min="4" max="4" width="14.1769911504425" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
-    <col min="11" max="11" width="12.6371681415929" customWidth="1"/>
-    <col min="12" max="12" width="16.4513274336283" customWidth="1"/>
-    <col min="13" max="13" width="8.36283185840708" customWidth="1"/>
-    <col min="14" max="14" width="17.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.175" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.45" customWidth="1"/>
+    <col min="13" max="13" width="8.36666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.6333333333333" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.4513274336283" customWidth="1"/>
+    <col min="16" max="25" width="16.45" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1769911504425" customWidth="1"/>
+    <col min="27" max="31" width="20.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:23">
+    <row r="1" s="13" customFormat="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="2"/>
@@ -4915,7 +4896,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" s="16" customFormat="1" spans="1:23">
+    <row r="2" s="14" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -4944,7 +4925,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" s="16" customFormat="1" spans="1:23">
+    <row r="3" s="14" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -4973,7 +4954,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" s="16" customFormat="1" spans="1:23">
+    <row r="4" s="14" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5002,7 +4983,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" s="16" customFormat="1" spans="1:23">
+    <row r="5" s="14" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -5031,7 +5012,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" s="16" customFormat="1" spans="1:23">
+    <row r="6" s="14" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -5060,12 +5041,12 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" s="16" customFormat="1" spans="1:23">
+    <row r="7" s="14" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5089,8 +5070,8 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" s="16" customFormat="1" spans="1:23">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="14" customFormat="1" spans="1:23">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="3" t="b">
@@ -5118,7 +5099,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" s="16" customFormat="1" spans="1:23">
+    <row r="9" s="14" customFormat="1" spans="1:23">
       <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
@@ -5189,7 +5170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" s="16" customFormat="1" spans="1:23">
+    <row r="10" s="14" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -5260,11 +5241,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" s="16" customFormat="1" spans="1:23">
+    <row r="11" s="14" customFormat="1" spans="1:23">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C11" s="3"/>
@@ -5289,11 +5270,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" s="15" customFormat="1" spans="1:23">
+    <row r="12" s="13" customFormat="1" spans="1:23">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C12" s="2"/>
@@ -5318,7 +5299,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" s="17" customFormat="1" spans="1:23">
+    <row r="13" s="15" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -5347,7 +5328,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:23">
+    <row r="14" s="15" customFormat="1" spans="1:23">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -5376,7 +5357,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" s="17" customFormat="1" spans="1:23">
+    <row r="15" s="15" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -5405,7 +5386,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" s="17" customFormat="1" spans="1:23">
+    <row r="16" s="15" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -5434,7 +5415,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" s="17" customFormat="1" spans="1:23">
+    <row r="17" s="15" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -5463,12 +5444,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" s="17" customFormat="1" spans="1:23">
+    <row r="18" s="15" customFormat="1" spans="1:23">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5492,8 +5473,8 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" s="17" customFormat="1" spans="1:23">
-      <c r="A19" s="5" t="s">
+    <row r="19" s="15" customFormat="1" spans="1:23">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="b">
@@ -5521,7 +5502,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:5">
+    <row r="20" s="15" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>140</v>
       </c>
@@ -5538,7 +5519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" spans="1:5">
+    <row r="21" s="15" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -5555,11 +5536,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" spans="1:23">
+    <row r="22" s="15" customFormat="1" spans="1:23">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="3"/>
@@ -5586,15 +5567,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 G11:G19 E1:G8 A4:B6 D22:G1048576 A15:B17 D12:F19">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 B18:B19 G11:G19 E1:G8 A4:B6 D22:G1048576 A15:B17 D12:F19">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5609,37 +5590,37 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.3628318584071" customWidth="1"/>
+    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.17699115044248" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
-    <col min="8" max="9" width="9.17699115044248" customWidth="1"/>
-    <col min="10" max="12" width="12.6371681415929" customWidth="1"/>
-    <col min="13" max="13" width="11.6371681415929" customWidth="1"/>
-    <col min="14" max="14" width="10.3628318584071" customWidth="1"/>
-    <col min="15" max="15" width="11.6371681415929" customWidth="1"/>
-    <col min="16" max="16" width="10.3628318584071" customWidth="1"/>
-    <col min="17" max="17" width="9.17699115044248" customWidth="1"/>
-    <col min="18" max="18" width="12.8141592920354" customWidth="1"/>
-    <col min="19" max="19" width="10.3628318584071" customWidth="1"/>
-    <col min="20" max="20" width="15.1769911504425" customWidth="1"/>
+    <col min="3" max="3" width="7.175" customWidth="1"/>
+    <col min="4" max="4" width="10.45" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="8" max="9" width="9.175" customWidth="1"/>
+    <col min="10" max="12" width="12.6333333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.6333333333333" customWidth="1"/>
+    <col min="14" max="14" width="10.3666666666667" customWidth="1"/>
+    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
+    <col min="16" max="16" width="10.3666666666667" customWidth="1"/>
+    <col min="17" max="17" width="9.175" customWidth="1"/>
+    <col min="18" max="18" width="12.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.3666666666667" customWidth="1"/>
+    <col min="20" max="20" width="15.175" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6371681415929" customWidth="1"/>
+    <col min="22" max="22" width="12.6333333333333" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6371681415929" customWidth="1"/>
-    <col min="26" max="26" width="15.1769911504425" customWidth="1"/>
-    <col min="27" max="27" width="12.6371681415929" customWidth="1"/>
+    <col min="24" max="25" width="11.6333333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.175" customWidth="1"/>
+    <col min="27" max="27" width="12.6333333333333" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6371681415929" customWidth="1"/>
-    <col min="31" max="32" width="15.1769911504425" customWidth="1"/>
+    <col min="30" max="30" width="11.6333333333333" customWidth="1"/>
+    <col min="31" max="32" width="15.175" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1769911504425" customWidth="1"/>
+    <col min="34" max="34" width="15.175" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5647,7 +5628,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5688,7 +5669,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
@@ -5700,7 +5681,7 @@
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
@@ -5889,20 +5870,20 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD$1:AK$1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G8 G11:G1048576 A4:B6 D1:F8 D11:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5918,229 +5899,229 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" customWidth="1"/>
-    <col min="2" max="2" width="17.1769911504425" customWidth="1"/>
-    <col min="3" max="3" width="20.3628318584071" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="16.175" customWidth="1"/>
+    <col min="2" max="2" width="17.175" customWidth="1"/>
+    <col min="3" max="3" width="20.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.45" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6371681415929" customWidth="1"/>
-    <col min="10" max="11" width="22.6371681415929" customWidth="1"/>
-    <col min="12" max="12" width="10.4513274336283" customWidth="1"/>
+    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="11" width="22.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:2">
+      <c r="A2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:2">
+      <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:2">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:2">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:2">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:2">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:2">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="6" customFormat="1" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:2">
-      <c r="A13" s="10" t="s">
+    <row r="13" s="6" customFormat="1" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>512</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:2">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="6" customFormat="1" spans="1:2">
+      <c r="A14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:2">
-      <c r="A15" s="10" t="s">
+    <row r="15" s="6" customFormat="1" spans="1:2">
+      <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="7" customFormat="1" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="B15" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="1:2">
+      <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="7" customFormat="1" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="1:2">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:2">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="7" customFormat="1" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="B18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:2">
+      <c r="A19" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:3">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="6" customFormat="1" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:2">
+      <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6156,21 +6137,21 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.17699115044248" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.175" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.175" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6371681415929" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.8141592920354" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6333333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.8166666666667" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6371681415929" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.8141592920354" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.8166666666667" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -6227,11 +6208,11 @@
         <v>43</v>
       </c>
       <c r="B7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
@@ -6348,11 +6329,11 @@
         <v>43</v>
       </c>
       <c r="B18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="b">
@@ -6418,17 +6399,17 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:F11 B7:B8 B18:B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
@@ -6444,15 +6425,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.17699115044248" customWidth="1"/>
-    <col min="2" max="2" width="12.6371681415929" customWidth="1"/>
-    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
+    <col min="1" max="1" width="8.175" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6485,11 +6466,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="21495" windowHeight="10342"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -49,7 +49,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -61,7 +61,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>经验</t>
@@ -73,7 +73,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>星级</t>
@@ -85,7 +85,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -97,7 +97,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -109,7 +109,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -121,7 +121,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -133,7 +133,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -145,7 +145,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -157,7 +157,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -169,7 +169,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -191,7 +191,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -203,7 +203,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -215,7 +215,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -227,7 +227,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -239,7 +239,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -251,7 +251,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -263,7 +263,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -275,7 +275,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -297,7 +297,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -309,7 +309,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -321,7 +321,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -333,7 +333,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -345,7 +345,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>任务ID</t>
@@ -357,7 +357,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>任务状态，见NFDefine.proto中ETaskState</t>
@@ -369,7 +369,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>当前进度</t>
@@ -391,7 +391,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
@@ -403,7 +403,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
@@ -1114,10 +1114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1141,46 +1141,145 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1188,107 +1287,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1313,7 +1313,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,127 +1433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,25 +1463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,6 +1623,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1643,32 +1658,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,6 +1703,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1725,148 +1725,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,55 +1969,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2368,7 +2368,6 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2377,24 +2376,28 @@
   <sheetPr/>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8166666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.175" customWidth="1"/>
-    <col min="3" max="3" width="10.45" customWidth="1"/>
-    <col min="4" max="4" width="11.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.175" customWidth="1"/>
-    <col min="7" max="7" width="9.36666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="8.17699115044248" customWidth="1"/>
+    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
+    <col min="4" max="4" width="11.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="8.17699115044248" customWidth="1"/>
+    <col min="6" max="6" width="18.3185840707965" customWidth="1"/>
+    <col min="7" max="7" width="9.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="17.6371681415929" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="17.3666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.6371681415929" customWidth="1"/>
+    <col min="11" max="11" width="17.3628318584071" customWidth="1"/>
+    <col min="27" max="27" width="13.6106194690265" customWidth="1"/>
+    <col min="30" max="30" width="12.4159292035398" customWidth="1"/>
+    <col min="31" max="31" width="15.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="27" customFormat="1" spans="1:36">
@@ -2633,8 +2636,8 @@
       <c r="E3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
+      <c r="F3" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2645,8 +2648,8 @@
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="b">
-        <v>1</v>
+      <c r="J3" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>1</v>
@@ -2654,62 +2657,62 @@
       <c r="L3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="b">
-        <v>1</v>
+      <c r="M3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="b">
-        <v>1</v>
+      <c r="Q3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="AF3" s="3" t="b">
         <v>1</v>
@@ -2752,8 +2755,8 @@
       <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
+      <c r="I4" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="b">
         <v>1</v>
@@ -3389,7 +3392,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F1:F5 F9:F1048576 B7:AF8 AG7:AJ8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 F6 F1:F2 F4:F5 F9:F1048576 B7:AF8 AG7:AJ8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -3411,7 +3414,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.175" customWidth="1"/>
+    <col min="1" max="1" width="19.1769911504425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
@@ -4266,15 +4269,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.175" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.8166666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.8141592920354" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.17699115044248" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6333333333333" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6333333333333" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.175" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6371681415929" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6371681415929" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.1769911504425" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
@@ -4852,19 +4855,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.175" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="16.45" customWidth="1"/>
-    <col min="13" max="13" width="8.36666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
+    <col min="2" max="2" width="15.3628318584071" customWidth="1"/>
+    <col min="3" max="3" width="10.3628318584071" customWidth="1"/>
+    <col min="4" max="4" width="14.1769911504425" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="11" max="11" width="12.6371681415929" customWidth="1"/>
+    <col min="12" max="12" width="16.4513274336283" customWidth="1"/>
+    <col min="13" max="13" width="8.36283185840708" customWidth="1"/>
+    <col min="14" max="14" width="17.6371681415929" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.45" customWidth="1"/>
+    <col min="16" max="25" width="16.4513274336283" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.175" customWidth="1"/>
+    <col min="27" max="31" width="20.1769911504425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:23">
@@ -5595,32 +5598,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.3628318584071" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.175" customWidth="1"/>
-    <col min="4" max="4" width="10.45" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
-    <col min="8" max="9" width="9.175" customWidth="1"/>
-    <col min="10" max="12" width="12.6333333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.6333333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.3666666666667" customWidth="1"/>
-    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
-    <col min="16" max="16" width="10.3666666666667" customWidth="1"/>
-    <col min="17" max="17" width="9.175" customWidth="1"/>
-    <col min="18" max="18" width="12.8166666666667" customWidth="1"/>
-    <col min="19" max="19" width="10.3666666666667" customWidth="1"/>
-    <col min="20" max="20" width="15.175" customWidth="1"/>
+    <col min="3" max="3" width="7.17699115044248" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="8" max="9" width="9.17699115044248" customWidth="1"/>
+    <col min="10" max="12" width="12.6371681415929" customWidth="1"/>
+    <col min="13" max="13" width="11.6371681415929" customWidth="1"/>
+    <col min="14" max="14" width="10.3628318584071" customWidth="1"/>
+    <col min="15" max="15" width="11.6371681415929" customWidth="1"/>
+    <col min="16" max="16" width="10.3628318584071" customWidth="1"/>
+    <col min="17" max="17" width="9.17699115044248" customWidth="1"/>
+    <col min="18" max="18" width="12.8141592920354" customWidth="1"/>
+    <col min="19" max="19" width="10.3628318584071" customWidth="1"/>
+    <col min="20" max="20" width="15.1769911504425" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6333333333333" customWidth="1"/>
+    <col min="22" max="22" width="12.6371681415929" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6333333333333" customWidth="1"/>
-    <col min="26" max="26" width="15.175" customWidth="1"/>
-    <col min="27" max="27" width="12.6333333333333" customWidth="1"/>
+    <col min="24" max="25" width="11.6371681415929" customWidth="1"/>
+    <col min="26" max="26" width="15.1769911504425" customWidth="1"/>
+    <col min="27" max="27" width="12.6371681415929" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6333333333333" customWidth="1"/>
-    <col min="31" max="32" width="15.175" customWidth="1"/>
+    <col min="30" max="30" width="11.6371681415929" customWidth="1"/>
+    <col min="31" max="32" width="15.1769911504425" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.175" customWidth="1"/>
+    <col min="34" max="34" width="15.1769911504425" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5904,15 +5907,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.175" customWidth="1"/>
-    <col min="2" max="2" width="17.175" customWidth="1"/>
-    <col min="3" max="3" width="20.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.45" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" customWidth="1"/>
+    <col min="2" max="2" width="17.1769911504425" customWidth="1"/>
+    <col min="3" max="3" width="20.3628318584071" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="11" width="22.6333333333333" customWidth="1"/>
-    <col min="12" max="12" width="10.45" customWidth="1"/>
+    <col min="9" max="9" width="12.6371681415929" customWidth="1"/>
+    <col min="10" max="11" width="22.6371681415929" customWidth="1"/>
+    <col min="12" max="12" width="10.4513274336283" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:2">
@@ -6142,16 +6145,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.175" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.175" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.17699115044248" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.8166666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6371681415929" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.8141592920354" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6333333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.8166666666667" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.8141592920354" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -6402,7 +6405,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
@@ -6410,6 +6412,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
@@ -6425,15 +6428,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.175" customWidth="1"/>
-    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.45" customWidth="1"/>
+    <col min="1" max="1" width="8.17699115044248" customWidth="1"/>
+    <col min="2" max="2" width="12.6371681415929" customWidth="1"/>
+    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6466,11 +6469,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -432,7 +432,7 @@
     <t>Camp</t>
   </si>
   <si>
-    <t>LastContainerID</t>
+    <t>HomeSceneID</t>
   </si>
   <si>
     <t>Level</t>
@@ -1114,10 +1114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1144,19 +1144,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,15 +1172,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,8 +1209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,56 +1240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,8 +1254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,6 +1274,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1313,7 +1313,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,6 +1362,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,31 +1457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,109 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,17 +1623,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,6 +1639,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,21 +1669,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,19 +1691,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1715,8 +1715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,148 +1725,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2376,10 +2376,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3392,7 +3392,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 F6 F1:F2 F4:F5 F9:F1048576 B7:AF8 AG7:AJ8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 AG7:AJ8 B7:E8 G7:AF8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -6406,13 +6406,13 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>Id</t>
   </si>
@@ -525,6 +525,18 @@
     <t>TeamID</t>
   </si>
   <si>
+    <t>ViewOppnent</t>
+  </si>
+  <si>
+    <t>FightOppnent</t>
+  </si>
+  <si>
+    <t>GambleGold</t>
+  </si>
+  <si>
+    <t>GambleDiamond</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -658,6 +670,12 @@
   </si>
   <si>
     <t>所在队伍ID</t>
+  </si>
+  <si>
+    <t>when searching</t>
+  </si>
+  <si>
+    <t>pvp_oppnent</t>
   </si>
   <si>
     <t>SUCKBLOOD</t>
@@ -1114,10 +1132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1148,6 +1166,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,8 +1181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,7 +1205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,6 +1219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1201,25 +1234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,15 +1257,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,31 +1295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,13 +1304,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1313,7 +1331,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,31 +1463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,103 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,19 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,6 +1647,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1630,6 +1669,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,17 +1712,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,53 +1744,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1743,134 +1767,134 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,6 +1990,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2374,12 +2410,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="AO1" sqref="AO$1:AO$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2398,9 +2434,13 @@
     <col min="27" max="27" width="13.6106194690265" customWidth="1"/>
     <col min="30" max="30" width="12.4159292035398" customWidth="1"/>
     <col min="31" max="31" width="15.929203539823" customWidth="1"/>
+    <col min="37" max="37" width="15.6725663716814" customWidth="1"/>
+    <col min="38" max="38" width="14.4778761061947" customWidth="1"/>
+    <col min="39" max="39" width="15.9380530973451" customWidth="1"/>
+    <col min="40" max="40" width="15.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:36">
+    <row r="1" s="27" customFormat="1" spans="1:40">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2509,120 +2549,144 @@
       <c r="AJ1" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:36">
+      <c r="AK1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:40">
       <c r="A2" s="31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:36">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:40">
       <c r="A3" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
@@ -2729,10 +2793,22 @@
       <c r="AJ3" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="28" customFormat="1" spans="1:36">
+      <c r="AK3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:40">
       <c r="A4" s="31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -2839,10 +2915,22 @@
       <c r="AJ4" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" s="28" customFormat="1" spans="1:36">
+      <c r="AK4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:40">
       <c r="A5" s="31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2949,10 +3037,22 @@
       <c r="AJ5" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="28" customFormat="1" spans="1:36">
+      <c r="AK5" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:40">
       <c r="A6" s="31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -3059,10 +3159,22 @@
       <c r="AJ6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="18" customFormat="1" spans="1:36">
+      <c r="AK6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:40">
       <c r="A7" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18" t="b">
         <v>0</v>
@@ -3169,10 +3281,22 @@
       <c r="AJ7" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="18" customFormat="1" spans="1:36">
+      <c r="AK7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:40">
       <c r="A8" s="24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18" t="b">
         <v>0</v>
@@ -3279,120 +3403,140 @@
       <c r="AJ8" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:36">
+      <c r="AK8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:40">
       <c r="A9" s="25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE9" s="26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG9" s="26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH9" s="26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI9" s="26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ9" s="26" t="s">
-        <v>80</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AK9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 AG7:AJ8 B7:E8 G7:AF8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 AK5 AL5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AG7:AJ8 B7:E8 G7:AF8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -3422,188 +3566,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="17" customFormat="1" spans="1:30">
       <c r="A2" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AD2" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="17" customFormat="1" spans="1:30">
       <c r="A3" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23" t="b">
         <v>1</v>
@@ -3695,7 +3839,7 @@
     </row>
     <row r="4" s="17" customFormat="1" spans="1:30">
       <c r="A4" s="22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="23" t="b">
         <v>1</v>
@@ -3787,7 +3931,7 @@
     </row>
     <row r="5" s="17" customFormat="1" spans="1:30">
       <c r="A5" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23" t="b">
         <v>0</v>
@@ -3879,7 +4023,7 @@
     </row>
     <row r="6" s="17" customFormat="1" spans="1:30">
       <c r="A6" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" s="23" t="b">
         <v>0</v>
@@ -3971,7 +4115,7 @@
     </row>
     <row r="7" s="18" customFormat="1" spans="1:30">
       <c r="A7" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18" t="b">
         <v>0</v>
@@ -4063,7 +4207,7 @@
     </row>
     <row r="8" s="18" customFormat="1" spans="1:30">
       <c r="A8" s="24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18" t="b">
         <v>0</v>
@@ -4155,94 +4299,94 @@
     </row>
     <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
       <c r="A9" s="25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4288,12 +4432,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -4301,7 +4445,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
@@ -4309,7 +4453,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -4317,7 +4461,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -4325,7 +4469,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -4333,7 +4477,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -4341,7 +4485,7 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4349,143 +4493,143 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:22">
       <c r="A10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12"/>
     </row>
@@ -4494,12 +4638,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -4507,7 +4651,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -4515,7 +4659,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -4523,7 +4667,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -4531,7 +4675,7 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -4539,7 +4683,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -4547,7 +4691,7 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>1</v>
@@ -4555,23 +4699,23 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12"/>
     </row>
@@ -4580,12 +4724,12 @@
         <v>0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B24" s="3">
         <v>15</v>
@@ -4593,7 +4737,7 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B25" s="3">
         <v>29</v>
@@ -4601,7 +4745,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -4609,7 +4753,7 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -4617,7 +4761,7 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>0</v>
@@ -4625,7 +4769,7 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>0</v>
@@ -4633,7 +4777,7 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>0</v>
@@ -4641,200 +4785,200 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:29">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:29">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 B19 C33 B29:B30 C23:C29 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
       <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4875,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4901,7 +5045,7 @@
     </row>
     <row r="2" s="14" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -4930,7 +5074,7 @@
     </row>
     <row r="3" s="14" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4959,7 +5103,7 @@
     </row>
     <row r="4" s="14" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -4988,7 +5132,7 @@
     </row>
     <row r="5" s="14" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5017,7 +5161,7 @@
     </row>
     <row r="6" s="14" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -5046,7 +5190,7 @@
     </row>
     <row r="7" s="14" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -5075,7 +5219,7 @@
     </row>
     <row r="8" s="14" customFormat="1" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -5104,152 +5248,152 @@
     </row>
     <row r="9" s="14" customFormat="1" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" s="14" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5278,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5304,7 +5448,7 @@
     </row>
     <row r="13" s="15" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -5333,7 +5477,7 @@
     </row>
     <row r="14" s="15" customFormat="1" spans="1:23">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5362,7 +5506,7 @@
     </row>
     <row r="15" s="15" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -5391,7 +5535,7 @@
     </row>
     <row r="16" s="15" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -5420,7 +5564,7 @@
     </row>
     <row r="17" s="15" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -5449,7 +5593,7 @@
     </row>
     <row r="18" s="15" customFormat="1" spans="1:23">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -5478,7 +5622,7 @@
     </row>
     <row r="19" s="15" customFormat="1" spans="1:23">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -5507,44 +5651,44 @@
     </row>
     <row r="20" s="15" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" s="15" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="1:23">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5570,15 +5714,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 G11:G19 E1:G8 A4:B6 D22:G1048576 A15:B17 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5632,12 +5776,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -5645,7 +5789,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -5653,7 +5797,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -5661,7 +5805,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5669,7 +5813,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -5677,7 +5821,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -5685,7 +5829,7 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -5693,200 +5837,200 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD$1:AK$1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5923,12 +6067,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -5936,7 +6080,7 @@
     </row>
     <row r="3" s="6" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -5944,7 +6088,7 @@
     </row>
     <row r="4" s="6" customFormat="1" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9" t="b">
         <v>0</v>
@@ -5952,7 +6096,7 @@
     </row>
     <row r="5" s="6" customFormat="1" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="b">
         <v>1</v>
@@ -5960,7 +6104,7 @@
     </row>
     <row r="6" s="6" customFormat="1" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9" t="b">
         <v>1</v>
@@ -5968,7 +6112,7 @@
     </row>
     <row r="7" s="6" customFormat="1" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -5976,7 +6120,7 @@
     </row>
     <row r="8" s="6" customFormat="1" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B8" s="9" t="b">
         <v>0</v>
@@ -5984,38 +6128,38 @@
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:2">
@@ -6023,12 +6167,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
@@ -6036,7 +6180,7 @@
     </row>
     <row r="14" s="6" customFormat="1" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -6044,7 +6188,7 @@
     </row>
     <row r="15" s="6" customFormat="1" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9" t="b">
         <v>0</v>
@@ -6052,7 +6196,7 @@
     </row>
     <row r="16" s="6" customFormat="1" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="b">
         <v>1</v>
@@ -6060,7 +6204,7 @@
     </row>
     <row r="17" s="6" customFormat="1" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9" t="b">
         <v>1</v>
@@ -6068,7 +6212,7 @@
     </row>
     <row r="18" s="6" customFormat="1" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -6076,7 +6220,7 @@
     </row>
     <row r="19" s="6" customFormat="1" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
@@ -6084,47 +6228,47 @@
     </row>
     <row r="20" s="6" customFormat="1" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
-      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6163,12 +6307,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -6176,7 +6320,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -6184,7 +6328,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -6192,7 +6336,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -6200,7 +6344,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -6208,7 +6352,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -6216,7 +6360,7 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -6224,59 +6368,59 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
@@ -6284,12 +6428,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -6297,7 +6441,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
@@ -6305,7 +6449,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -6313,7 +6457,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -6321,7 +6465,7 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -6329,7 +6473,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -6337,7 +6481,7 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -6345,77 +6489,77 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6444,27 +6588,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342"/>
+    <workbookView windowWidth="21495" windowHeight="10342" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1132,10 +1132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1160,30 +1160,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,16 +1182,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1219,8 +1203,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,77 +1302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,25 +1337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,25 +1403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1421,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,85 +1499,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,6 +1647,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1658,41 +1667,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1715,8 +1689,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,8 +1698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,153 +1718,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2412,10 +2412,10 @@
   <sheetPr/>
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AO1" sqref="AO$1:AO$1048576"/>
+      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2932,110 +2932,110 @@
       <c r="A5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="b">
-        <v>1</v>
+      <c r="B5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="AK5" s="33" t="b">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="AM5" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="28" customFormat="1" spans="1:40">
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="AM6" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="18" customFormat="1" spans="1:40">
@@ -3536,7 +3536,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 AK5 AL5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AG7:AJ8 B7:E8 G7:AF8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 B5:AJ5 AK5 AL5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AG7:AJ8 B7:E8 G7:AF8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -4408,7 +4408,7 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4472,7 +4472,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
@@ -4971,14 +4971,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 B19 C33 B29:B30 C23:C29 D33:G1048576 A4:B6 A15:B17 A26:B28 D12:G18 D20:G29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 B19 A28 B28 C33 B29:B30 C23:C29 D33:G1048576 D12:G18 D20:G29 A4:B5 A15:B16 A26:B27">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
       <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5164,7 +5164,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -5567,7 +5567,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5714,15 +5714,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 G11:G19 E1:G8 A4:B6 D22:G1048576 A15:B17 D12:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 A17 B17 B18 B19 G11:G19 E1:G8 D22:G1048576 D12:F19 A15:B16 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5816,7 +5816,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
@@ -6023,14 +6023,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD$1:AK$1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6046,7 +6046,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6107,7 +6107,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" spans="1:2">
@@ -6258,17 +6258,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
-      <formula1>"int,float,string,object"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B18 G1:G21 A4:B6 A15:B17 E1:F11 D12:F21 D22:G1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6283,8 +6283,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6347,7 +6347,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
@@ -6546,20 +6546,20 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A15:B17 E1:H8 D12:F19 A4:B5">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A4:B6 A15:B17 E1:H8 D12:F19">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10342"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,9 @@
     <t>GambleDiamond</t>
   </si>
   <si>
+    <t>FightHero</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -916,9 +919,6 @@
   </si>
   <si>
     <t>PlayerFightHero</t>
-  </si>
-  <si>
-    <t>FightPos</t>
   </si>
   <si>
     <t>HeroPropertyValue</t>
@@ -1160,7 +1160,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,6 +1175,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,23 +1195,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,20 +1242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1233,16 +1250,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,8 +1273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,33 +1295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,31 +1337,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,37 +1469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,85 +1511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,6 +1656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1671,16 +1686,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1697,24 +1712,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,11 +1738,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,152 +1749,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,14 +1982,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2410,17 +2416,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6"/>
+      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8141592920354" customWidth="1"/>
+    <col min="1" max="1" width="23.8141592920354" style="29" customWidth="1"/>
     <col min="2" max="2" width="8.17699115044248" customWidth="1"/>
     <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
     <col min="4" max="4" width="11.6371681415929" customWidth="1"/>
@@ -2438,115 +2444,116 @@
     <col min="38" max="38" width="14.4778761061947" customWidth="1"/>
     <col min="39" max="39" width="15.9380530973451" customWidth="1"/>
     <col min="40" max="40" width="15.929203539823" customWidth="1"/>
+    <col min="41" max="41" width="11.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:40">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+    <row r="1" s="27" customFormat="1" spans="1:41">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="27" t="s">
@@ -2561,133 +2568,139 @@
       <c r="AN1" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:40">
-      <c r="A2" s="31" t="s">
+      <c r="AO1" s="27" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:41">
+      <c r="A2" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:40">
-      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
+      <c r="AK2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:41">
+      <c r="A3" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
@@ -2793,22 +2806,25 @@
       <c r="AJ3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AK3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="28" customFormat="1" spans="1:40">
-      <c r="A4" s="31" t="s">
-        <v>45</v>
+      <c r="AK3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="28" customFormat="1" spans="1:41">
+      <c r="A4" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -2915,22 +2931,25 @@
       <c r="AJ4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AK4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="28" customFormat="1" spans="1:40">
-      <c r="A5" s="31" t="s">
-        <v>46</v>
+      <c r="AK4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="1" spans="1:41">
+      <c r="A5" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="18" t="b">
         <v>0</v>
@@ -3037,22 +3056,25 @@
       <c r="AJ5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AK5" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="28" customFormat="1" spans="1:40">
-      <c r="A6" s="31" t="s">
-        <v>47</v>
+      <c r="AK5" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="28" customFormat="1" spans="1:41">
+      <c r="A6" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -3159,22 +3181,25 @@
       <c r="AJ6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AK6" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="18" customFormat="1" spans="1:40">
-      <c r="A7" s="24" t="s">
-        <v>48</v>
+      <c r="AK6" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" spans="1:41">
+      <c r="A7" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="18" t="b">
         <v>0</v>
@@ -3281,22 +3306,25 @@
       <c r="AJ7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AK7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="18" customFormat="1" spans="1:40">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
+      <c r="AK7" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:41">
+      <c r="A8" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="b">
         <v>0</v>
@@ -3403,143 +3431,146 @@
       <c r="AJ8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AK8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="33" t="b">
+      <c r="AK8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" ht="68.25" spans="1:40">
       <c r="A9" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="P9" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG9" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH9" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AL9" s="34" t="s">
+      <c r="AK9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
+      <c r="AL9" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 B5:AJ5 AK5 AL5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AG7:AJ8 B7:E8 G7:AF8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 B5:AJ5 AK5 AL5 AO5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AO7:AO8 AG7:AJ8 B7:E8 G7:AF8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3566,188 +3597,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" s="17" customFormat="1" spans="1:30">
       <c r="A2" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" s="17" customFormat="1" spans="1:30">
       <c r="A3" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="23" t="b">
         <v>1</v>
@@ -3839,7 +3870,7 @@
     </row>
     <row r="4" s="17" customFormat="1" spans="1:30">
       <c r="A4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="23" t="b">
         <v>1</v>
@@ -3931,7 +3962,7 @@
     </row>
     <row r="5" s="17" customFormat="1" spans="1:30">
       <c r="A5" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="23" t="b">
         <v>0</v>
@@ -4023,7 +4054,7 @@
     </row>
     <row r="6" s="17" customFormat="1" spans="1:30">
       <c r="A6" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="23" t="b">
         <v>0</v>
@@ -4115,7 +4146,7 @@
     </row>
     <row r="7" s="18" customFormat="1" spans="1:30">
       <c r="A7" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="18" t="b">
         <v>0</v>
@@ -4207,7 +4238,7 @@
     </row>
     <row r="8" s="18" customFormat="1" spans="1:30">
       <c r="A8" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="b">
         <v>0</v>
@@ -4299,102 +4330,102 @@
     </row>
     <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
       <c r="A9" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4408,7 +4439,7 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4432,12 +4463,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -4445,7 +4476,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
@@ -4453,7 +4484,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -4461,7 +4492,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -4469,7 +4500,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -4477,7 +4508,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -4485,7 +4516,7 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4493,143 +4524,143 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:22">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:22">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="12"/>
     </row>
@@ -4638,28 +4669,28 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -4667,7 +4698,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -4675,7 +4706,7 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>0</v>
@@ -4683,7 +4714,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -4691,31 +4722,25 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" s="3" customFormat="1" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12"/>
     </row>
@@ -4729,7 +4754,7 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3">
         <v>15</v>
@@ -4737,7 +4762,7 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3">
         <v>29</v>
@@ -4745,7 +4770,7 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -4753,7 +4778,7 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -4761,7 +4786,7 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>0</v>
@@ -4769,7 +4794,7 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>0</v>
@@ -4777,7 +4802,7 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>0</v>
@@ -4785,185 +4810,185 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:29">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:29">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>169</v>
@@ -5045,7 +5070,7 @@
     </row>
     <row r="2" s="14" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -5074,7 +5099,7 @@
     </row>
     <row r="3" s="14" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -5103,7 +5128,7 @@
     </row>
     <row r="4" s="14" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -5132,7 +5157,7 @@
     </row>
     <row r="5" s="14" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5161,7 +5186,7 @@
     </row>
     <row r="6" s="14" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -5190,7 +5215,7 @@
     </row>
     <row r="7" s="14" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -5219,7 +5244,7 @@
     </row>
     <row r="8" s="14" customFormat="1" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -5248,13 +5273,13 @@
     </row>
     <row r="9" s="14" customFormat="1" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>172</v>
@@ -5319,78 +5344,78 @@
     </row>
     <row r="10" s="14" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>192</v>
@@ -5448,7 +5473,7 @@
     </row>
     <row r="13" s="15" customFormat="1" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -5477,7 +5502,7 @@
     </row>
     <row r="14" s="15" customFormat="1" spans="1:23">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5506,7 +5531,7 @@
     </row>
     <row r="15" s="15" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -5535,7 +5560,7 @@
     </row>
     <row r="16" s="15" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -5564,7 +5589,7 @@
     </row>
     <row r="17" s="15" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>0</v>
@@ -5593,7 +5618,7 @@
     </row>
     <row r="18" s="15" customFormat="1" spans="1:23">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -5622,7 +5647,7 @@
     </row>
     <row r="19" s="15" customFormat="1" spans="1:23">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -5651,7 +5676,7 @@
     </row>
     <row r="20" s="15" customFormat="1" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>194</v>
@@ -5668,24 +5693,24 @@
     </row>
     <row r="21" s="15" customFormat="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="1:23">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>192</v>
@@ -5717,10 +5742,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 A17 B17 B18 B19 G11:G19 E1:G8 D22:G1048576 D12:F19 A15:B16 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
@@ -5781,7 +5806,7 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -5789,7 +5814,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -5797,7 +5822,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -5805,7 +5830,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5813,7 +5838,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -5821,7 +5846,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -5837,185 +5862,185 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>169</v>
@@ -6046,7 +6071,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6072,7 +6097,7 @@
     </row>
     <row r="2" s="6" customFormat="1" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -6080,7 +6105,7 @@
     </row>
     <row r="3" s="6" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -6088,7 +6113,7 @@
     </row>
     <row r="4" s="6" customFormat="1" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="b">
         <v>0</v>
@@ -6096,7 +6121,7 @@
     </row>
     <row r="5" s="6" customFormat="1" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9" t="b">
         <v>1</v>
@@ -6104,7 +6129,7 @@
     </row>
     <row r="6" s="6" customFormat="1" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="9" t="b">
         <v>0</v>
@@ -6112,7 +6137,7 @@
     </row>
     <row r="7" s="6" customFormat="1" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -6142,21 +6167,21 @@
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>204</v>
@@ -6172,7 +6197,7 @@
     </row>
     <row r="13" s="6" customFormat="1" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
@@ -6180,7 +6205,7 @@
     </row>
     <row r="14" s="6" customFormat="1" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -6188,7 +6213,7 @@
     </row>
     <row r="15" s="6" customFormat="1" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="b">
         <v>0</v>
@@ -6196,7 +6221,7 @@
     </row>
     <row r="16" s="6" customFormat="1" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9" t="b">
         <v>1</v>
@@ -6204,7 +6229,7 @@
     </row>
     <row r="17" s="6" customFormat="1" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9" t="b">
         <v>0</v>
@@ -6212,7 +6237,7 @@
     </row>
     <row r="18" s="6" customFormat="1" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -6239,18 +6264,18 @@
     </row>
     <row r="21" s="6" customFormat="1" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>208</v>
@@ -6258,11 +6283,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
@@ -6283,8 +6308,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6312,7 +6337,7 @@
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -6320,7 +6345,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -6328,7 +6353,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -6336,7 +6361,7 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -6344,7 +6369,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -6352,7 +6377,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -6394,33 +6419,33 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
@@ -6433,7 +6458,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -6441,7 +6466,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
@@ -6449,7 +6474,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -6457,7 +6482,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -6465,7 +6490,7 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -6473,7 +6498,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -6481,7 +6506,7 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -6515,37 +6540,38 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A15:B17 E1:H8 D12:F19 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -6556,7 +6582,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
@@ -6594,7 +6619,7 @@
         <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0">
+    <comment ref="F31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0">
+    <comment ref="H31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0">
+    <comment ref="J31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +297,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +391,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -1130,14 +1135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1159,158 +1158,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,194 +1188,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1646,251 +1313,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2004,61 +1429,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2078,6 +1455,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2404,43 +1789,41 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8141592920354" customWidth="1"/>
-    <col min="2" max="2" width="8.17699115044248" customWidth="1"/>
-    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
-    <col min="4" max="4" width="11.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="8.17699115044248" customWidth="1"/>
-    <col min="6" max="6" width="18.3185840707965" customWidth="1"/>
-    <col min="7" max="7" width="9.36283185840708" customWidth="1"/>
-    <col min="8" max="8" width="17.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6371681415929" customWidth="1"/>
-    <col min="11" max="11" width="17.3628318584071" customWidth="1"/>
-    <col min="27" max="27" width="13.6106194690265" customWidth="1"/>
-    <col min="30" max="30" width="12.4159292035398" customWidth="1"/>
-    <col min="31" max="31" width="15.929203539823" customWidth="1"/>
-    <col min="37" max="37" width="15.6725663716814" customWidth="1"/>
-    <col min="38" max="38" width="14.4778761061947" customWidth="1"/>
-    <col min="39" max="39" width="15.9380530973451" customWidth="1"/>
-    <col min="40" max="40" width="15.929203539823" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.59765625" customWidth="1"/>
+    <col min="30" max="30" width="12.3984375" customWidth="1"/>
+    <col min="31" max="31" width="15.9296875" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" customWidth="1"/>
+    <col min="38" max="38" width="14.46484375" customWidth="1"/>
+    <col min="39" max="40" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:40">
+    <row r="1" spans="1:40" s="27" customFormat="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +1945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="1" spans="1:40">
+    <row r="2" spans="1:40" s="28" customFormat="1">
       <c r="A2" s="31" t="s">
         <v>40</v>
       </c>
@@ -2684,7 +2067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" s="28" customFormat="1" spans="1:40">
+    <row r="3" spans="1:40" s="28" customFormat="1">
       <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
@@ -2806,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" spans="1:40">
+    <row r="4" spans="1:40" s="28" customFormat="1">
       <c r="A4" s="31" t="s">
         <v>45</v>
       </c>
@@ -2831,8 +2214,8 @@
       <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="18" t="b">
-        <v>0</v>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="b">
         <v>1</v>
@@ -2928,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" spans="1:40">
+    <row r="5" spans="1:40" s="28" customFormat="1">
       <c r="A5" s="31" t="s">
         <v>46</v>
       </c>
@@ -3050,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" spans="1:40">
+    <row r="6" spans="1:40" s="28" customFormat="1">
       <c r="A6" s="31" t="s">
         <v>47</v>
       </c>
@@ -3172,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:40">
+    <row r="7" spans="1:40" s="18" customFormat="1">
       <c r="A7" s="24" t="s">
         <v>48</v>
       </c>
@@ -3294,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:40">
+    <row r="8" spans="1:40" s="18" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
@@ -3416,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:40">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="67.5">
       <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
@@ -3536,20 +2919,19 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3 N3 O3 Q3:T3 U3 V3 W3 X3 Y3 Z3 AA3 AB3 AC3 AD3 AE3 I4 B5:AJ5 AK5 AL5 AK6 AL6 AK7:AK8 AL7:AL8 AM7:AM8 AN7:AN8 AG7:AJ8 B7:E8 G7:AF8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3:O3 Q3:AE3 B5:AJ5 AK5:AL6 G7:AN8 B7:E8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3558,10 +2940,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1769911504425" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="27" spans="1:30">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="17" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -3745,7 +3127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="17" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>44</v>
       </c>
@@ -3837,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="17" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>45</v>
       </c>
@@ -3929,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="17" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>46</v>
       </c>
@@ -4021,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="17" customFormat="1">
       <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
@@ -4113,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="18" customFormat="1">
       <c r="A7" s="24" t="s">
         <v>48</v>
       </c>
@@ -4205,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:30">
+    <row r="8" spans="1:30" s="18" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
@@ -4297,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="68.25" spans="1:30">
+    <row r="9" spans="1:30" s="19" customFormat="1" ht="54">
       <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
@@ -4396,15 +3778,14 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,21 +3794,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.8141592920354" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.17699115044248" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6371681415929" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6371681415929" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1769911504425" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.19921875" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +3816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
@@ -4443,7 +3824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
@@ -4451,7 +3832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -4459,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -4467,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -4475,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:22" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -4483,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:22" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -4491,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:22">
+    <row r="9" spans="1:22" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>145</v>
       </c>
@@ -4559,7 +3940,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:22">
+    <row r="10" spans="1:22" s="3" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>43</v>
       </c>
@@ -4627,13 +4008,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
+    <row r="11" spans="1:22" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" spans="1:22" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
+    <row r="13" spans="1:22" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>143</v>
       </c>
@@ -4649,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
+    <row r="14" spans="1:22" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>144</v>
       </c>
@@ -4657,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+    <row r="15" spans="1:22" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -4665,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:22" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -4673,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -4681,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
+    <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
+    <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -4697,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" spans="1:29" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>145</v>
       </c>
@@ -4705,7 +4086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:29" s="3" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -4713,13 +4094,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:2">
+    <row r="23" spans="1:29" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -4727,7 +4108,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:2">
+    <row r="24" spans="1:29" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>143</v>
       </c>
@@ -4735,7 +4116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:2">
+    <row r="25" spans="1:29" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>144</v>
       </c>
@@ -4743,7 +4124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:2">
+    <row r="26" spans="1:29" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -4751,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:2">
+    <row r="27" spans="1:29" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -4759,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:2">
+    <row r="28" spans="1:29" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -4767,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:2">
+    <row r="29" spans="1:29" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -4775,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:2">
+    <row r="30" spans="1:29" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -4783,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:29">
+    <row r="31" spans="1:29" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
@@ -4872,7 +4253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:29">
+    <row r="32" spans="1:29" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -4961,7 +4342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:2">
+    <row r="33" spans="1:2" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
@@ -4981,16 +4362,15 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4999,22 +4379,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
-    <col min="2" max="2" width="15.3628318584071" customWidth="1"/>
-    <col min="3" max="3" width="10.3628318584071" customWidth="1"/>
-    <col min="4" max="4" width="14.1769911504425" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
-    <col min="11" max="11" width="12.6371681415929" customWidth="1"/>
-    <col min="12" max="12" width="16.4513274336283" customWidth="1"/>
-    <col min="13" max="13" width="8.36283185840708" customWidth="1"/>
-    <col min="14" max="14" width="17.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.46484375" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.4513274336283" customWidth="1"/>
+    <col min="16" max="25" width="16.46484375" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1769911504425" customWidth="1"/>
+    <col min="27" max="31" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:23">
+    <row r="1" spans="1:23" s="13" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +4423,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:23">
+    <row r="2" spans="1:23" s="14" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
@@ -5072,7 +4452,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:23">
+    <row r="3" spans="1:23" s="14" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
@@ -5101,7 +4481,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:23">
+    <row r="4" spans="1:23" s="14" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5130,7 +4510,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:23">
+    <row r="5" spans="1:23" s="14" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -5159,7 +4539,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" s="14" customFormat="1" spans="1:23">
+    <row r="6" spans="1:23" s="14" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -5188,7 +4568,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" s="14" customFormat="1" spans="1:23">
+    <row r="7" spans="1:23" s="14" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -5217,7 +4597,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:23">
+    <row r="8" spans="1:23" s="14" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -5246,7 +4626,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" s="14" customFormat="1" spans="1:23">
+    <row r="9" spans="1:23" s="14" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>145</v>
       </c>
@@ -5317,7 +4697,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" spans="1:23">
+    <row r="10" spans="1:23" s="14" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5388,7 +4768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" spans="1:23">
+    <row r="11" spans="1:23" s="14" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -5417,7 +4797,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" s="13" customFormat="1" spans="1:23">
+    <row r="12" spans="1:23" s="13" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -5446,7 +4826,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" s="15" customFormat="1" spans="1:23">
+    <row r="13" spans="1:23" s="15" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>143</v>
       </c>
@@ -5475,7 +4855,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" s="15" customFormat="1" spans="1:23">
+    <row r="14" spans="1:23" s="15" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>144</v>
       </c>
@@ -5504,7 +4884,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" s="15" customFormat="1" spans="1:23">
+    <row r="15" spans="1:23" s="15" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -5533,7 +4913,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" s="15" customFormat="1" spans="1:23">
+    <row r="16" spans="1:23" s="15" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -5562,7 +4942,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" s="15" customFormat="1" spans="1:23">
+    <row r="17" spans="1:23" s="15" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -5591,7 +4971,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" s="15" customFormat="1" spans="1:23">
+    <row r="18" spans="1:23" s="15" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -5620,7 +5000,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" s="15" customFormat="1" spans="1:23">
+    <row r="19" spans="1:23" s="15" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -5649,7 +5029,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" s="15" customFormat="1" spans="1:5">
+    <row r="20" spans="1:23" s="15" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -5666,7 +5046,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="1" spans="1:5">
+    <row r="21" spans="1:23" s="15" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -5683,7 +5063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="15" customFormat="1" spans="1:23">
+    <row r="22" spans="1:23" s="15" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
@@ -5725,15 +5105,14 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5742,36 +5121,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.3628318584071" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.17699115044248" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
-    <col min="8" max="9" width="9.17699115044248" customWidth="1"/>
-    <col min="10" max="12" width="12.6371681415929" customWidth="1"/>
-    <col min="13" max="13" width="11.6371681415929" customWidth="1"/>
-    <col min="14" max="14" width="10.3628318584071" customWidth="1"/>
-    <col min="15" max="15" width="11.6371681415929" customWidth="1"/>
-    <col min="16" max="16" width="10.3628318584071" customWidth="1"/>
-    <col min="17" max="17" width="9.17699115044248" customWidth="1"/>
-    <col min="18" max="18" width="12.8141592920354" customWidth="1"/>
-    <col min="19" max="19" width="10.3628318584071" customWidth="1"/>
-    <col min="20" max="20" width="15.1769911504425" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="9.19921875" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6371681415929" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6371681415929" customWidth="1"/>
-    <col min="26" max="26" width="15.1769911504425" customWidth="1"/>
-    <col min="27" max="27" width="12.6371681415929" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.19921875" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6371681415929" customWidth="1"/>
-    <col min="31" max="32" width="15.1769911504425" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="32" width="15.19921875" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1769911504425" customWidth="1"/>
+    <col min="34" max="34" width="15.19921875" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:29" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5779,7 +5158,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:29" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
@@ -5795,7 +5174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5803,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:29" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -5811,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:29" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -5819,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -5827,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>197</v>
       </c>
@@ -5835,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:29">
+    <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
@@ -5924,7 +5303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:29">
+    <row r="10" spans="1:29" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -6013,7 +5392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
+    <row r="11" spans="1:29" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -6026,43 +5405,42 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD$1:AK$1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" customWidth="1"/>
-    <col min="2" max="2" width="17.1769911504425" customWidth="1"/>
-    <col min="3" max="3" width="20.3628318584071" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6371681415929" customWidth="1"/>
-    <col min="10" max="11" width="22.6371681415929" customWidth="1"/>
-    <col min="12" max="12" width="10.4513274336283" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:2">
+    <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6070,7 +5448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:2">
+    <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>143</v>
       </c>
@@ -6078,7 +5456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:2">
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>144</v>
       </c>
@@ -6086,7 +5464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:2">
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -6094,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:2">
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -6102,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:2">
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
@@ -6110,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:2">
+    <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -6118,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:2">
+    <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>199</v>
       </c>
@@ -6126,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:4">
+    <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>200</v>
       </c>
@@ -6140,7 +5518,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:4">
+    <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -6154,7 +5532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:2">
+    <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
@@ -6162,7 +5540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:2">
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +5548,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:2">
+    <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>143</v>
       </c>
@@ -6178,7 +5556,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:2">
+    <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>144</v>
       </c>
@@ -6186,7 +5564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:2">
+    <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
@@ -6194,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:2">
+    <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -6202,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
@@ -6210,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:2">
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -6218,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:2">
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>199</v>
       </c>
@@ -6226,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>203</v>
       </c>
@@ -6237,7 +5615,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
@@ -6248,7 +5626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:2">
+    <row r="22" spans="1:3" s="6" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -6267,42 +5645,41 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I$1:L$1048576 A20:B21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1769911504425" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.17699115044248" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="7.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6371681415929" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.8141592920354" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6371681415929" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.8141592920354" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.796875" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6310,7 +5687,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
@@ -6318,7 +5695,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
@@ -6326,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -6334,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -6342,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -6350,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -6358,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>197</v>
       </c>
@@ -6366,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>210</v>
       </c>
@@ -6392,7 +5769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -6418,12 +5795,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -6431,7 +5808,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>143</v>
       </c>
@@ -6439,7 +5816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
+    <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>144</v>
       </c>
@@ -6447,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6455,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -6463,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -6471,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
+    <row r="18" spans="1:8" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -6479,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -6487,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:8">
+    <row r="20" spans="1:8" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>210</v>
       </c>
@@ -6513,7 +5890,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:8">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -6539,14 +5916,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:1">
+    <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 B18 B19 I$1:I$1048576 G11:H19 D22:H1048576 A15:B17 E1:H8 D12:F19 A4:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 B18 B19 I1:I1048576 G11:H19 D22:H1048576 A15:B17 E1:H8 D12:F19 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
@@ -6561,26 +5938,24 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.17699115044248" customWidth="1"/>
-    <col min="2" max="2" width="12.6371681415929" customWidth="1"/>
-    <col min="3" max="3" width="10.4513274336283" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6620,7 +5995,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -452,9 +452,6 @@
     <t>FirstTarget</t>
   </si>
   <si>
-    <t>CharType</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
   </si>
   <si>
     <t>首要目标</t>
-  </si>
-  <si>
-    <t>角色类型</t>
   </si>
   <si>
     <t>职业</t>
@@ -1130,6 +1124,15 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>FightHero</t>
+  </si>
+  <si>
+    <t>Hero</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1166,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,6 +1188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,13 +1359,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1427,6 +1430,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,7 +1817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1807,14 +1825,14 @@
     <col min="1" max="1" width="23.796875" customWidth="1"/>
     <col min="2" max="2" width="8.19921875" customWidth="1"/>
     <col min="3" max="3" width="10.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="27" max="27" width="13.59765625" customWidth="1"/>
     <col min="30" max="30" width="12.3984375" customWidth="1"/>
     <col min="31" max="31" width="15.9296875" customWidth="1"/>
@@ -1823,1103 +1841,1103 @@
     <col min="39" max="40" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="27" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:40" s="25" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AF1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AG1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AH1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AI1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AK1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:40" s="26" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" s="28" customFormat="1">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AK2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AL2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AM2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="26" customFormat="1">
+      <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="28" customFormat="1">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="26" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="28" customFormat="1">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="26" customFormat="1">
+      <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="28" customFormat="1">
-      <c r="A5" s="31" t="s">
+      <c r="B5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="26" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" s="28" customFormat="1">
-      <c r="A6" s="31" t="s">
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="16" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" s="18" customFormat="1">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="16" customFormat="1">
+      <c r="A8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" s="18" customFormat="1">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" s="17" customFormat="1" ht="67.5">
+      <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="67.5">
-      <c r="A9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="N9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="O9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="Q9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="26" t="s">
+      <c r="R9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="S9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="T9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="U9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="V9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="W9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="X9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="Y9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="Z9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="AA9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="AB9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AC9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AD9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AE9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AF9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AG9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="26" t="s">
+      <c r="AH9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" s="26" t="s">
+      <c r="AI9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AH9" s="26" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AI9" s="26" t="s">
+      <c r="AK9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AJ9" s="26" t="s">
+      <c r="AL9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AK9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 M3:O3 Q3:AE3 B5:AJ5 AK5:AL6 G7:AN8 B7:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 M3:O3 Q3:AE3 AK5:AL6 B5:AJ5 B7:F8 H7:AN8 L6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -2943,832 +2961,832 @@
     <col min="1" max="1" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="27">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:30" s="14" customFormat="1" ht="27">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="W1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="X1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Z1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AD1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:30" s="15" customFormat="1">
+      <c r="A2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="15" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="15" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="15" customFormat="1">
+      <c r="A5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="15" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="16" customFormat="1">
+      <c r="A7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="16" customFormat="1">
+      <c r="A8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="17" customFormat="1" ht="54">
+      <c r="A9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="17" customFormat="1">
-      <c r="A2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="17" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="17" customFormat="1">
-      <c r="A4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="17" customFormat="1">
-      <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="17" customFormat="1">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="18" customFormat="1">
-      <c r="A7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="19" customFormat="1" ht="54">
-      <c r="A9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="E9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="N9" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="O9" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="P9" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="Q9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="R9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="S9" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="T9" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="U9" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="V9" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="W9" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="X9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="Y9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="Z9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="AA9" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="AB9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AC9" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AD9" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="AC9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD9" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3789,266 +3807,294 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
     <col min="12" max="13" width="15.19921875" style="4" customWidth="1"/>
-    <col min="14" max="29" width="9" style="4"/>
+    <col min="14" max="21" width="9" style="4"/>
+    <col min="22" max="22" width="15.265625" style="4" customWidth="1"/>
+    <col min="23" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1">
+    <row r="1" spans="1:23" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1">
+      <c r="B1" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1">
+    <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1">
+      <c r="A9" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1">
+      <c r="A10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1">
+      <c r="A11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="U9" s="3" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="3" customFormat="1">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="3" customFormat="1">
+    </row>
+    <row r="13" spans="1:23" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1">
+    <row r="14" spans="1:23" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1">
+    <row r="15" spans="1:23" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -4056,7 +4102,7 @@
     </row>
     <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>0</v>
@@ -4064,7 +4110,7 @@
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -4072,45 +4118,45 @@
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1">
+      <c r="A20" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1">
+      <c r="A21" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1">
+      <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="3" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="3" customFormat="1">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:29" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>168</v>
+      <c r="B23" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="3">
         <v>15</v>
@@ -4118,7 +4164,7 @@
     </row>
     <row r="25" spans="1:29" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="3">
         <v>29</v>
@@ -4126,7 +4172,7 @@
     </row>
     <row r="26" spans="1:29" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -4134,7 +4180,7 @@
     </row>
     <row r="27" spans="1:29" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -4142,7 +4188,7 @@
     </row>
     <row r="28" spans="1:29" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>0</v>
@@ -4150,7 +4196,7 @@
     </row>
     <row r="29" spans="1:29" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>0</v>
@@ -4158,201 +4204,228 @@
     </row>
     <row r="30" spans="1:29" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="3" customFormat="1">
+      <c r="A31" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y31" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z31" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA31" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC31" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="3" customFormat="1">
+      <c r="A32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC32" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="3" customFormat="1">
+      <c r="A33" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="3" customFormat="1">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="3" customFormat="1">
-      <c r="A33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="B33" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 B19 A28 B28 C33 B29:B30 C23:C29 D33:G1048576 D12:G18 D20:G29 A4:B5 A15:B16 A26:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 B17:B19 A28 C33 B28:B30 C23:C29 D33:G1048576 D12:G18 D20:G29 A4:B5 A15:B16 A26:B27">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
@@ -4363,9 +4436,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4374,7 +4447,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A9" sqref="A9:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4394,12 +4467,12 @@
     <col min="27" max="31" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1">
+    <row r="1" spans="1:23" s="11" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>170</v>
+      <c r="B1" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4423,9 +4496,9 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1">
+    <row r="2" spans="1:23" s="12" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -4452,9 +4525,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1">
+    <row r="3" spans="1:23" s="12" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4481,9 +4554,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1">
+    <row r="4" spans="1:23" s="12" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -4510,9 +4583,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1">
+    <row r="5" spans="1:23" s="12" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -4539,9 +4612,9 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1">
+    <row r="6" spans="1:23" s="12" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -4568,9 +4641,9 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1">
+    <row r="7" spans="1:23" s="12" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -4597,9 +4670,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1">
+    <row r="8" spans="1:23" s="12" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4626,183 +4699,183 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:23" s="12" customFormat="1">
+      <c r="A9" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="V9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1">
+      <c r="A10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1">
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="14" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" s="13" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4826,9 +4899,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1">
+    <row r="13" spans="1:23" s="13" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -4855,9 +4928,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1">
+    <row r="14" spans="1:23" s="13" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -4884,9 +4957,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="15" customFormat="1">
+    <row r="15" spans="1:23" s="13" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -4913,9 +4986,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1">
+    <row r="16" spans="1:23" s="13" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -4942,9 +5015,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="15" customFormat="1">
+    <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>0</v>
@@ -4971,9 +5044,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1">
+    <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -5000,9 +5073,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="15" customFormat="1">
+    <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -5029,50 +5102,50 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="15" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="15" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="12" t="s">
+    <row r="20" spans="1:23" s="13" customFormat="1">
+      <c r="A20" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C20" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="13" customFormat="1">
+      <c r="A21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="13" customFormat="1">
+      <c r="A22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5116,7 +5189,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5154,13 +5227,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>196</v>
+      <c r="B1" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -5168,7 +5241,7 @@
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -5176,7 +5249,7 @@
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -5184,7 +5257,7 @@
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5192,7 +5265,7 @@
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -5200,7 +5273,7 @@
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -5208,197 +5281,224 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Z9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AA9" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AB9" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AC9" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>42</v>
+      <c r="A10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -5424,7 +5524,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5445,12 +5545,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -5458,7 +5558,7 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -5466,7 +5566,7 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="b">
         <v>0</v>
@@ -5474,7 +5574,7 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="b">
         <v>1</v>
@@ -5482,7 +5582,7 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="b">
         <v>0</v>
@@ -5490,7 +5590,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -5498,59 +5598,61 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1">
+      <c r="A9" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
+      <c r="A10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
+      <c r="A11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="A11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
@@ -5558,7 +5660,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -5566,7 +5668,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="b">
         <v>0</v>
@@ -5574,7 +5676,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="9" t="b">
         <v>1</v>
@@ -5582,7 +5684,7 @@
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9" t="b">
         <v>0</v>
@@ -5590,7 +5692,7 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -5598,41 +5700,42 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
-      <c r="A20" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1">
+      <c r="A21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1">
+      <c r="A22" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1">
-      <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>208</v>
-      </c>
+      <c r="C22" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -5661,7 +5764,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5684,12 +5787,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -5697,7 +5800,7 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -5705,7 +5808,7 @@
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -5713,7 +5816,7 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -5721,7 +5824,7 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -5729,7 +5832,7 @@
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -5737,80 +5840,87 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -5818,7 +5928,7 @@
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
@@ -5826,7 +5936,7 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -5834,7 +5944,7 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -5842,7 +5952,7 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -5850,7 +5960,7 @@
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -5858,68 +5968,75 @@
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="A21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1">
+      <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -5963,27 +6080,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1815,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -1813,11 +1813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1833,15 +1833,15 @@
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13.59765625" customWidth="1"/>
-    <col min="30" max="30" width="12.3984375" customWidth="1"/>
-    <col min="31" max="31" width="15.9296875" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="38" max="38" width="14.46484375" customWidth="1"/>
-    <col min="39" max="40" width="15.9296875" customWidth="1"/>
+    <col min="28" max="28" width="13.59765625" customWidth="1"/>
+    <col min="31" max="31" width="12.3984375" customWidth="1"/>
+    <col min="32" max="32" width="15.9296875" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.46484375" customWidth="1"/>
+    <col min="40" max="41" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="25" customFormat="1">
+    <row r="1" spans="1:41" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1891,79 +1891,82 @@
         <v>14</v>
       </c>
       <c r="Q1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AL1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AM1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AO1" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="26" customFormat="1">
+    <row r="2" spans="1:41" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
@@ -2025,13 +2028,13 @@
         <v>41</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>41</v>
@@ -2049,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
@@ -2058,7 +2061,7 @@
         <v>42</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>41</v>
@@ -2067,25 +2070,28 @@
         <v>41</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AL2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="AM2" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN2" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" s="26" customFormat="1">
+      <c r="AO2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
@@ -2179,11 +2185,11 @@
       <c r="AE3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" s="3" t="b">
-        <v>1</v>
+      <c r="AF3" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AG3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="3" t="b">
         <v>0</v>
@@ -2194,7 +2200,7 @@
       <c r="AJ3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AK3" s="30" t="b">
+      <c r="AK3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AL3" s="30" t="b">
@@ -2206,8 +2212,11 @@
       <c r="AN3" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" s="26" customFormat="1">
+      <c r="AO3" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -2305,19 +2314,19 @@
         <v>1</v>
       </c>
       <c r="AG4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AK4" s="30" t="b">
-        <v>0</v>
+      <c r="AK4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="AL4" s="30" t="b">
         <v>0</v>
@@ -2328,8 +2337,11 @@
       <c r="AN4" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" s="26" customFormat="1">
+      <c r="AO4" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -2438,20 +2450,23 @@
       <c r="AJ5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK5" s="31" t="b">
+      <c r="AK5" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AL5" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="AM5" s="30" t="b">
+      <c r="AM5" s="31" t="b">
         <v>0</v>
       </c>
       <c r="AN5" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" s="26" customFormat="1">
+      <c r="AO5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
@@ -2560,20 +2575,23 @@
       <c r="AJ6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AK6" s="31" t="b">
-        <v>0</v>
+      <c r="AK6" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="AL6" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="AM6" s="30" t="b">
+      <c r="AM6" s="31" t="b">
         <v>0</v>
       </c>
       <c r="AN6" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" s="16" customFormat="1">
+      <c r="AO6" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
@@ -2682,7 +2700,7 @@
       <c r="AJ7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK7" s="31" t="b">
+      <c r="AK7" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AL7" s="31" t="b">
@@ -2694,8 +2712,11 @@
       <c r="AN7" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" s="16" customFormat="1">
+      <c r="AO7" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>48</v>
       </c>
@@ -2804,7 +2825,7 @@
       <c r="AJ8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK8" s="31" t="b">
+      <c r="AK8" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AL8" s="31" t="b">
@@ -2816,8 +2837,11 @@
       <c r="AN8" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" s="17" customFormat="1" ht="67.5">
+      <c r="AO8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="17" customFormat="1" ht="67.5">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -2870,74 +2894,77 @@
         <v>63</v>
       </c>
       <c r="R9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="W9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="X9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="Y9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Z9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="AA9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AB9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AC9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AD9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AF9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AG9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AH9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AH9" s="24" t="s">
+      <c r="AI9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AK9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AK9" s="32" t="s">
+      <c r="AL9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="32" t="s">
+      <c r="AM9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AM9" s="33"/>
       <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 M3:O3 Q3:AE3 AK5:AL6 B5:AJ5 B7:F8 H7:AN8 L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 M3:O3 AL5:AM6 B7:F8 L6 Q3:AF3 B5:AK5 H7:AO8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -3806,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3819,11 +3846,22 @@
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.19921875" style="4" customWidth="1"/>
-    <col min="14" max="21" width="9" style="4"/>
-    <col min="22" max="22" width="15.265625" style="4" customWidth="1"/>
-    <col min="23" max="29" width="9" style="4"/>
+    <col min="11" max="11" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="4"/>
+    <col min="20" max="20" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
@@ -4457,12 +4495,14 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.46484375" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="25" width="16.46484375" customWidth="1"/>
+    <col min="8" max="15" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.46484375" customWidth="1"/>
+    <col min="19" max="19" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.46484375" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
     <col min="27" max="31" width="20.19921875" customWidth="1"/>
   </cols>
@@ -6064,7 +6104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_Hero" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_Bag" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_CommPropertyValue" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_CommPropertyValue" sheetId="5" r:id="rId3"/>
+    <sheet name="Record_Hero" sheetId="3" r:id="rId4"/>
+    <sheet name="Record_Bag" sheetId="4" r:id="rId5"/>
     <sheet name="Record_Task" sheetId="6" r:id="rId6"/>
     <sheet name="Record_Building" sheetId="7" r:id="rId7"/>
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -32,160 +32,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>经验</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>星级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -276,6 +122,160 @@
       </text>
     </comment>
     <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>星级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -914,16 +914,7 @@
     <t>FightSkill</t>
   </si>
   <si>
-    <t>PlayerFightHero</t>
-  </si>
-  <si>
-    <t>FightPos</t>
-  </si>
-  <si>
     <t>HeroPropertyValue</t>
-  </si>
-  <si>
-    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
   </si>
   <si>
     <t>BagEquipList</t>
@@ -1133,6 +1124,30 @@
   </si>
   <si>
     <t>Hero</t>
+  </si>
+  <si>
+    <t>Hero1</t>
+  </si>
+  <si>
+    <t>Hero2</t>
+  </si>
+  <si>
+    <t>Hero3</t>
+  </si>
+  <si>
+    <t>HeroPos3</t>
+  </si>
+  <si>
+    <t>HeroPos2</t>
+  </si>
+  <si>
+    <t>HeroPos1</t>
+  </si>
+  <si>
+    <t>one her one row to sotre the properties</t>
+  </si>
+  <si>
+    <t>0job_level,1equipment,2static_BUFF,3runtime_BUFF,4Hero</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1181,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,6 +1466,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,11 +1843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1827,21 +1857,23 @@
     <col min="3" max="3" width="10.46484375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="28" max="28" width="13.59765625" customWidth="1"/>
-    <col min="31" max="31" width="12.3984375" customWidth="1"/>
-    <col min="32" max="32" width="15.9296875" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.46484375" customWidth="1"/>
-    <col min="40" max="41" width="15.9296875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="14" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.59765625" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.3984375" customWidth="1"/>
+    <col min="33" max="33" width="15.9296875" customWidth="1"/>
+    <col min="39" max="39" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" customWidth="1"/>
+    <col min="41" max="41" width="14.46484375" customWidth="1"/>
+    <col min="42" max="43" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="25" customFormat="1">
+    <row r="1" spans="1:43" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1861,112 +1893,118 @@
         <v>4</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AO1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AP1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="26" customFormat="1">
+    <row r="2" spans="1:43" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
@@ -1989,25 +2027,25 @@
         <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>41</v>
+      <c r="M2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>41</v>
@@ -2031,13 +2069,13 @@
         <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>41</v>
@@ -2055,7 +2093,7 @@
         <v>41</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2064,7 +2102,7 @@
         <v>42</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>41</v>
@@ -2073,25 +2111,31 @@
         <v>41</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AM2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="30" t="s">
-        <v>41</v>
-      </c>
       <c r="AO2" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="26" customFormat="1">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
@@ -2110,8 +2154,8 @@
       <c r="F3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="16" t="b">
-        <v>0</v>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>1</v>
@@ -2119,32 +2163,32 @@
       <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16" t="b">
-        <v>0</v>
+      <c r="J3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="39" t="b">
+        <v>1</v>
       </c>
       <c r="O3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="3" t="b">
-        <v>1</v>
+      <c r="P3" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="Q3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="16" t="b">
-        <v>0</v>
+      <c r="R3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="S3" s="16" t="b">
         <v>0</v>
@@ -2188,11 +2232,11 @@
       <c r="AF3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG3" s="3" t="b">
-        <v>1</v>
+      <c r="AG3" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AH3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="3" t="b">
         <v>0</v>
@@ -2203,10 +2247,10 @@
       <c r="AK3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AL3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="30" t="b">
+      <c r="AL3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="31" t="b">
         <v>0</v>
       </c>
       <c r="AN3" s="30" t="b">
@@ -2215,8 +2259,14 @@
       <c r="AO3" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" s="26" customFormat="1">
+      <c r="AP3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -2247,16 +2297,16 @@
       <c r="J4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="b">
+      <c r="K4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="3" t="b">
@@ -2317,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="AH4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AJ4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="30" t="b">
-        <v>0</v>
+      <c r="AL4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="AM4" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="30" t="b">
         <v>0</v>
@@ -2340,8 +2390,14 @@
       <c r="AO4" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" s="26" customFormat="1">
+      <c r="AP4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -2372,16 +2428,16 @@
       <c r="J5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16" t="b">
+      <c r="K5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="16" t="b">
@@ -2453,20 +2509,26 @@
       <c r="AK5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AL5" s="31" t="b">
+      <c r="AL5" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AM5" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="AN5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" s="26" customFormat="1">
+      <c r="AN5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
@@ -2497,17 +2559,17 @@
       <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="b">
-        <v>1</v>
+      <c r="K6" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -2578,20 +2640,26 @@
       <c r="AK6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AL6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" s="16" customFormat="1">
+      <c r="AL6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
@@ -2622,16 +2690,16 @@
       <c r="J7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16" t="b">
+      <c r="K7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="16" t="b">
@@ -2703,7 +2771,7 @@
       <c r="AK7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AL7" s="31" t="b">
+      <c r="AL7" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AM7" s="31" t="b">
@@ -2715,8 +2783,14 @@
       <c r="AO7" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" s="16" customFormat="1">
+      <c r="AP7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>48</v>
       </c>
@@ -2747,16 +2821,16 @@
       <c r="J8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="b">
+      <c r="K8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="16" t="b">
@@ -2828,7 +2902,7 @@
       <c r="AK8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AL8" s="31" t="b">
+      <c r="AL8" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AM8" s="31" t="b">
@@ -2840,8 +2914,14 @@
       <c r="AO8" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" s="17" customFormat="1" ht="67.5">
+      <c r="AP8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="17" customFormat="1" ht="67.5">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -2861,110 +2941,116 @@
         <v>53</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="N9" s="41" t="s">
         <v>224</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="O9" s="24" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="W9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="X9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="Y9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Z9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="AA9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AB9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AC9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AD9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AF9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AG9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AH9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AH9" s="24" t="s">
+      <c r="AI9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AK9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AK9" s="24" t="s">
+      <c r="AL9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AL9" s="32" t="s">
+      <c r="AM9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AM9" s="32" t="s">
+      <c r="AO9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 M3:O3 AL5:AM6 B7:F8 L6 Q3:AF3 B5:AK5 H7:AO8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:Q3 AN5:AO6 B7:F8 S3:AG3 J3 K6:N6 AN7:AQ8 G7:AL8 B5:F5 G5:AM5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -3831,10 +3917,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="9.19921875" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.19921875" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="32" width="15.19921875" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="15.19921875" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1">
+      <c r="A9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1">
+      <c r="A10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1">
+      <c r="A11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3938,7 +4359,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
@@ -4111,7 +4532,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1">
@@ -4119,7 +4540,7 @@
         <v>142</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1">
@@ -4127,7 +4548,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1">
@@ -4151,7 +4572,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
@@ -4159,22 +4580,184 @@
         <v>48</v>
       </c>
       <c r="B19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>165</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA20" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC20" s="34" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="3" customFormat="1">
-      <c r="A21" s="35" t="s">
-        <v>42</v>
+      <c r="A21" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC21" s="34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4182,294 +4765,46 @@
       <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="35"/>
-    </row>
-    <row r="23" spans="1:29" s="2" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="3" customFormat="1">
-      <c r="A24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="3" customFormat="1">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="3" customFormat="1">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="3" customFormat="1">
-      <c r="A31" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="O31" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P31" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q31" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="R31" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="S31" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="W31" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="X31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y31" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA31" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC31" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="3" customFormat="1">
-      <c r="A32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="T32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="U32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="V32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC32" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="3" customFormat="1">
-      <c r="A33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
+      <c r="B22" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 B17:B19 A28 C33 B28:B30 C23:C29 D33:G1048576 D12:G18 D20:G29 A4:B5 A15:B16 A26:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A32:C32 U32 D31:T32 V31:AC32">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C20:C22 A24:B25 B34:C1048576 A2:B3 A13:B14">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4480,12 +4815,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:W11"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4512,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4744,70 +5079,70 @@
         <v>143</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>186</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1">
@@ -4886,7 +5221,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4915,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5147,16 +5482,16 @@
         <v>144</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
@@ -5181,7 +5516,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5221,341 +5556,6 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AC11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.19921875" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.19921875" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.19921875" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="32" width="15.19921875" customWidth="1"/>
-    <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.19921875" customWidth="1"/>
-    <col min="35" max="35" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1">
-      <c r="A9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z9" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB9" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="3" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC10" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="3" customFormat="1">
-      <c r="A11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -5638,7 +5638,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B8" s="9" t="b">
         <v>0</v>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>198</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
@@ -5677,7 +5677,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
@@ -5740,7 +5740,7 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>204</v>
-      </c>
       <c r="C20" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -5773,7 +5773,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="36"/>
     </row>
@@ -5804,7 +5804,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H11"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
@@ -5880,7 +5880,7 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -5888,28 +5888,28 @@
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1">
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -6016,28 +6016,28 @@
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="H20" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
@@ -6104,7 +6104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -6120,10 +6120,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -6131,16 +6131,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN15" sqref="AN15"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2036,16 +2036,16 @@
         <v>42</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>41</v>
@@ -2167,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="16" t="b">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="K6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>1</v>
@@ -3050,7 +3050,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:Q3 AN5:AO6 B7:F8 S3:AG3 J3 K6:N6 AN7:AQ8 G7:AL8 B5:F5 G5:AM5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:Q3 AN5:AO6 S3:AG3 J3 AN7:AQ8 B7:AL8 B5:AM5 K6:N6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
@@ -3919,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -1843,11 +1843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1861,19 +1861,19 @@
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="14" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.59765625" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.3984375" customWidth="1"/>
-    <col min="33" max="33" width="15.9296875" customWidth="1"/>
-    <col min="39" max="39" width="18.33203125" customWidth="1"/>
-    <col min="40" max="40" width="15.6640625" customWidth="1"/>
-    <col min="41" max="41" width="14.46484375" customWidth="1"/>
-    <col min="42" max="43" width="15.9296875" customWidth="1"/>
+    <col min="11" max="17" width="17.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.59765625" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.3984375" customWidth="1"/>
+    <col min="36" max="36" width="15.9296875" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.46484375" customWidth="1"/>
+    <col min="45" max="46" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="25" customFormat="1">
+    <row r="1" spans="1:46" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1917,94 +1917,103 @@
         <v>225</v>
       </c>
       <c r="O1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AR1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AS1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AT1" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="26" customFormat="1">
+    <row r="2" spans="1:46" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
@@ -2047,14 +2056,14 @@
       <c r="N2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
+      <c r="O2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>41</v>
@@ -2072,20 +2081,20 @@
         <v>41</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="AB2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2096,46 +2105,55 @@
         <v>41</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="AK2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AP2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AR2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="26" customFormat="1">
+      <c r="AS2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT2" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
@@ -2178,17 +2196,17 @@
       <c r="N3" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="b">
-        <v>1</v>
+      <c r="O3" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="S3" s="16" t="b">
         <v>0</v>
@@ -2196,8 +2214,8 @@
       <c r="T3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="U3" s="16" t="b">
-        <v>0</v>
+      <c r="U3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="V3" s="16" t="b">
         <v>0</v>
@@ -2235,38 +2253,47 @@
       <c r="AG3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="b">
+      <c r="AH3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AK3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AM3" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="30" t="b">
+      <c r="AM3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="31" t="b">
         <v>0</v>
       </c>
       <c r="AQ3" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="26" customFormat="1">
+      <c r="AR3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -2309,13 +2336,13 @@
       <c r="N4" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="b">
+      <c r="O4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="3" t="b">
@@ -2370,34 +2397,43 @@
         <v>1</v>
       </c>
       <c r="AI4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="30" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="AP4" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="26" customFormat="1">
+      <c r="AR4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
@@ -2440,13 +2476,13 @@
       <c r="N5" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16" t="b">
+      <c r="O5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="16" t="b">
@@ -2512,23 +2548,32 @@
       <c r="AL5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AM5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" s="26" customFormat="1">
+      <c r="AM5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
@@ -2571,13 +2616,13 @@
       <c r="N6" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="b">
+      <c r="O6" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="40" t="b">
         <v>1</v>
       </c>
       <c r="R6" s="3" t="b">
@@ -2643,23 +2688,32 @@
       <c r="AL6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AM6" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="31" t="b">
-        <v>0</v>
+      <c r="AM6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="AP6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" s="16" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
@@ -2702,13 +2756,13 @@
       <c r="N7" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16" t="b">
+      <c r="O7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="16" t="b">
@@ -2774,13 +2828,13 @@
       <c r="AL7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AM7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="31" t="b">
+      <c r="AM7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AP7" s="31" t="b">
@@ -2789,8 +2843,17 @@
       <c r="AQ7" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" s="16" customFormat="1">
+      <c r="AR7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>48</v>
       </c>
@@ -2833,13 +2896,13 @@
       <c r="N8" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16" t="b">
+      <c r="O8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="16" t="b">
@@ -2905,13 +2968,13 @@
       <c r="AL8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AM8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="31" t="b">
+      <c r="AM8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AP8" s="31" t="b">
@@ -2920,8 +2983,17 @@
       <c r="AQ8" s="31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" s="17" customFormat="1" ht="67.5">
+      <c r="AR8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="17" customFormat="1" ht="67.5">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -2964,93 +3036,102 @@
       <c r="N9" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="U9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="W9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="X9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="Y9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="Z9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="AA9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="AB9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="AC9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AD9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AE9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AF9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AG9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AH9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AI9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="24" t="s">
+      <c r="AK9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AL9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AM9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AK9" s="24" t="s">
+      <c r="AN9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AL9" s="24" t="s">
+      <c r="AO9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AM9" s="32" t="s">
+      <c r="AP9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AN9" s="32" t="s">
+      <c r="AQ9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AO9" s="32" t="s">
+      <c r="AR9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:Q3 AN5:AO6 S3:AG3 J3 AN7:AQ8 B7:AL8 B5:AM5 K6:N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 AQ7:AT8 K6:Q6 B5:AP5 B7:AO8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Building!$E$1:$E$22</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -420,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="231">
   <si>
     <t>Id</t>
   </si>
@@ -1090,12 +1091,6 @@
     <t>PosY</t>
   </si>
   <si>
-    <t>PosZ</t>
-  </si>
-  <si>
-    <t>StateStartTime</t>
-  </si>
-  <si>
     <t>StateEndTime</t>
   </si>
   <si>
@@ -1148,6 +1143,15 @@
   </si>
   <si>
     <t>0job_level,1equipment,2static_BUFF,3runtime_BUFF,4Hero</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>vector3</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
@@ -1905,16 +1909,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O1" s="28" t="s">
         <v>158</v>
@@ -3025,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="N9" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="O9" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="41" t="s">
         <v>222</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>224</v>
       </c>
       <c r="R9" s="24" t="s">
         <v>60</v>
@@ -4282,7 +4286,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4440,7 +4444,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
@@ -4847,7 +4851,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5882,28 +5886,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
-    <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.796875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="13.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="11.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -5919,15 +5925,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B3" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -5935,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
+    <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -5951,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
+    <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>192</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>205</v>
       </c>
@@ -5981,19 +5987,13 @@
         <v>208</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
         <v>40</v>
       </c>
@@ -6004,22 +6004,16 @@
         <v>41</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>49</v>
       </c>
@@ -6028,18 +6022,16 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>141</v>
       </c>
@@ -6047,15 +6039,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1">
+    <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -6063,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1">
+    <row r="16" spans="1:6" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -6071,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:6" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -6079,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
+    <row r="18" spans="1:6" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -6087,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -6095,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
+    <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
         <v>205</v>
       </c>
@@ -6114,14 +6106,8 @@
       <c r="F20" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
         <v>40</v>
       </c>
@@ -6132,22 +6118,16 @@
         <v>41</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
@@ -6156,16 +6136,14 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 B18 B19 I1:I1048576 G11:H19 D22:H1048576 A15:B17 E1:H8 D12:F19 A4:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 G1:G1048576 A15:B17 A4:B5 D12:D19 D22:D1048576 F1:F8 F11:F19 F22:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 D9:F9 A20:B20 D20:F20 K40:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 D10:F10 A21:B21 D21:F21 K1:K39">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 A20:B20 I40:I1048576 D20 D9"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 I1:I39 D21 D10">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
@@ -6201,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -6212,16 +6190,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_CommPropertyValue" sheetId="5" r:id="rId3"/>
+    <sheet name="Record_CommValue" sheetId="5" r:id="rId3"/>
     <sheet name="Record_Hero" sheetId="3" r:id="rId4"/>
     <sheet name="Record_Bag" sheetId="4" r:id="rId5"/>
     <sheet name="Record_Task" sheetId="6" r:id="rId6"/>
@@ -996,9 +996,6 @@
     <t>Bound</t>
   </si>
   <si>
-    <t>CommPropertyValue</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1152,6 +1149,9 @@
   </si>
   <si>
     <t>vector3</t>
+  </si>
+  <si>
+    <t>CommValue</t>
   </si>
 </sst>
 </file>
@@ -1909,16 +1909,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O1" s="28" t="s">
         <v>158</v>
@@ -3029,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="N9" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="N9" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="O9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="Q9" s="41" t="s">
         <v>221</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>222</v>
       </c>
       <c r="R9" s="24" t="s">
         <v>60</v>
@@ -4004,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
@@ -4097,7 +4097,7 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4444,7 +4444,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
@@ -4851,7 +4851,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -5723,7 +5723,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9" t="b">
         <v>0</v>
@@ -5731,16 +5731,16 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
@@ -5762,7 +5762,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
@@ -5825,7 +5825,7 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
@@ -5833,13 +5833,13 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -5858,7 +5858,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="36"/>
     </row>
@@ -5888,7 +5888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -5975,22 +5975,22 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>208</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
@@ -6004,10 +6004,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>229</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>41</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
@@ -6089,22 +6089,22 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>209</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
@@ -6118,10 +6118,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>41</v>
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
         <v>212</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -6190,16 +6190,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/Player.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -1152,6 +1152,9 @@
   </si>
   <si>
     <t>CommValue</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -1847,11 +1850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2859,286 +2862,426 @@
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="16" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="17" customFormat="1" ht="67.5">
-      <c r="A9" s="23" t="s">
+      <c r="B9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="17" customFormat="1" ht="67.5">
+      <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K10" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M10" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P10" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q10" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AE10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AF10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AG10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AH9" s="24" t="s">
+      <c r="AH10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AI10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AK9" s="24" t="s">
+      <c r="AK10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="24" t="s">
+      <c r="AL10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AM9" s="24" t="s">
+      <c r="AM10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AN9" s="24" t="s">
+      <c r="AN10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AO9" s="24" t="s">
+      <c r="AO10" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="AP9" s="32" t="s">
+      <c r="AP10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AQ9" s="32" t="s">
+      <c r="AQ10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AR9" s="32" t="s">
+      <c r="AR10" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 AQ7:AT8 K6:Q6 B5:AP5 B7:AO8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 B5:AP5 B7:AO9 AQ7:AT9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3148,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3805,192 +3948,284 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="16" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="17" customFormat="1" ht="54">
-      <c r="A9" s="23" t="s">
+      <c r="B9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="17" customFormat="1" ht="54">
+      <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4005,7 +4240,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4318,13 +4553,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7:B8 G1:G8 G11:G1048576 D1:F8 D11:F1048576 A4:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 AC1:AC8 AC11:AC1048576 AD1:AK1048576 I1:K8 I11:K1048576 L1:AB8 L11:AB1048576 D9:T10 V9:AC10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C1:C8 A2:B3 B12:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
